--- a/biology/Botanique/Holarrhena_pubescens/Holarrhena_pubescens.xlsx
+++ b/biology/Botanique/Holarrhena_pubescens/Holarrhena_pubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holarrhena pubescens est une espèce de plantes à fleurs dicotylédones de la famille des Apocynaceae, sous-famille des Apocynoideae, originaire des régions tropicales d'Afrique australe et orientale et du Sud et du Sud-Est de l'Asie (sous-continent indien, péninsule indochinoise, Chine). 
 Ce sont des arbustes ou petits arbres à feuilles caduques et à latex, pouvant atteindre 18 mètres de haut, aux fleurs blanches à corolle tubulaire, aux fruits secs (follicules) cylindriques, très allongés.
 Ces plantes contiennent de nombreux alcaloïdes (plus d'une trentaine), dont le principal est la conessine, isolés principalement de l'écorce. On a isolé également des graines l'antidysentéricine. 
 L'espèce a de nombreux usages comme plante médicinale en médecine traditionnelle indienne (Ayurveda), notamment contre la dysenterie amibienne et d'autres troubles gastriques.
-La présence de la conessine leur confère une certaine toxicité car elle peut entraîner des troubles neurologiques (vertiges, insomnie, agitation, anxiété et délire)[2].
+La présence de la conessine leur confère une certaine toxicité car elle peut entraîner des troubles neurologiques (vertiges, insomnie, agitation, anxiété et délire).
 </t>
         </is>
       </c>
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (12 novembre 2020)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (12 novembre 2020) :
 Chonemorpha antidysenterica (Roth) G.Don
 Chonemorpha pubescens (Wall.) G.Don
 Echites adglutinatus Burm.f.
@@ -526,7 +543,7 @@
 Elytropus pubescens (Wall.) Miers
 Holarrhena antidysenterica (Roth) Wall. ex A.DC.
 Holarrhena codaga G.Don
-Holarrhena febrifuga Klotzsch [3]
+Holarrhena febrifuga Klotzsch 
 Holarrhena glaberrima Markgr.
 Holarrhena macrocarpa (Hassk.) Fern.-Vill.
 Holarrhena perrotii Spire
